--- a/biology/Médecine/Maladies_héréditaires_récessives_au_Québec/Maladies_héréditaires_récessives_au_Québec.xlsx
+++ b/biology/Médecine/Maladies_héréditaires_récessives_au_Québec/Maladies_héréditaires_récessives_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladies_h%C3%A9r%C3%A9ditaires_r%C3%A9cessives_au_Qu%C3%A9bec</t>
+          <t>Maladies_héréditaires_récessives_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,32 +490,34 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>En raison de l'effet fondateur[1], certaines maladies héréditaires récessives (ou maladies génétiques) sont plus courantes au Québec qu'ailleurs, notamment dans les régions du Saguenay–Lac-Saint-Jean, de Charlevoix et de la Haute-Côte-Nord. Ces trois régions ont été colonisées par des colons français ayant une plus faible diversité génétique qu'ailleurs dans la province. La relative petitesse du bassin génétique a été propice au développement de maladies génétiques chez une partie des habitants de ces régions[2].
-Certaines maladies héréditaires sont spécifiques à ces trois régions, certaines y sont plus répandues tandis que d'autres maladies génétiques sont présentes ailleurs au Québec mais sont plus rares dans ces régions[3].
-Les auteurs Bchetnia et collab. présentent une vue d'ensemble des maladies génétiques rares touchant les populations du Saguenay–Lac-Saint-Jean[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>En raison de l'effet fondateur, certaines maladies héréditaires récessives (ou maladies génétiques) sont plus courantes au Québec qu'ailleurs, notamment dans les régions du Saguenay–Lac-Saint-Jean, de Charlevoix et de la Haute-Côte-Nord. Ces trois régions ont été colonisées par des colons français ayant une plus faible diversité génétique qu'ailleurs dans la province. La relative petitesse du bassin génétique a été propice au développement de maladies génétiques chez une partie des habitants de ces régions.
+Certaines maladies héréditaires sont spécifiques à ces trois régions, certaines y sont plus répandues tandis que d'autres maladies génétiques sont présentes ailleurs au Québec mais sont plus rares dans ces régions.
+Les auteurs Bchetnia et collab. présentent une vue d'ensemble des maladies génétiques rares touchant les populations du Saguenay–Lac-Saint-Jean.
 Parmi les maladies génétiques communément attribuées à l'effet fondateur québécois, sont notamment mentionnées : 
-l'acidose lactique congénitale (syndrome de Leigh (en), type canadien-français)[2] ;
-l'ataxie récessive spastique de Charlevoix-Saguenay[2] ;
-la dystrophie musculaire oculopharyngée[5] ;
-la dystrophie myotonique (maladie de Steinert)[5] ;
-l'hémophilie (rare au Saguenay, mais présent au Québec[3]) ;
-la fibrose kystique[3] ;
-l'hypercholestérolémie familiale[6] ;
-la maladie de Tay-Sachs[7] ;
-la mucolipidose de type 2[8] ;
+l'acidose lactique congénitale (syndrome de Leigh (en), type canadien-français) ;
+l'ataxie récessive spastique de Charlevoix-Saguenay ;
+la dystrophie musculaire oculopharyngée ;
+la dystrophie myotonique (maladie de Steinert) ;
+l'hémophilie (rare au Saguenay, mais présent au Québec) ;
+la fibrose kystique ;
+l'hypercholestérolémie familiale ;
+la maladie de Tay-Sachs ;
+la mucolipidose de type 2 ;
 la neuropathie sensitivomotrice héréditaire avec ou sans agénésie du corps calleux ;
-le rachitisme[9] ;
-le syndrome de Joubert[10] ;
-le syndrome d'Andermann[11] ;
-le syndrome de déficience intellectuelle autosomique récessif de type 39[12],[13] ;
-le syndrome de Clouston[14] ;
-le syndrome de chylomicronémie familiale[15] ;
-le syndrome Mednik[16] ;
-le syndrome d'Usher[17] ;
-le syndrome de Zellweger[18],[13] ;
-la tyrosinémie héréditaire de type 1[2].</t>
+le rachitisme ;
+le syndrome de Joubert ;
+le syndrome d'Andermann ;
+le syndrome de déficience intellectuelle autosomique récessif de type 39, ;
+le syndrome de Clouston ;
+le syndrome de chylomicronémie familiale ;
+le syndrome Mednik ;
+le syndrome d'Usher ;
+le syndrome de Zellweger, ;
+la tyrosinémie héréditaire de type 1.</t>
         </is>
       </c>
     </row>
